--- a/DataSource/MóduloCas.xlsx
+++ b/DataSource/MóduloCas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\RanorexStudio Projects\CuentasMedicas_Sanitas\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197696E9-9B92-43E5-A5F6-DE2A8365E489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31725B96-79C9-4470-B5B6-F8EAB1C81E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A29217C-980D-4FFE-AEFF-447CDE9F4121}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE145E57-09B7-43F9-B279-A7000EB425AA}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/DataSource/MóduloCas.xlsx
+++ b/DataSource/MóduloCas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31725B96-79C9-4470-B5B6-F8EAB1C81E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396841DD-93E4-4795-A1CC-BCB83AACC6D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,43 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="131">
   <si>
     <t>NroIdentificacion</t>
   </si>
@@ -87,49 +118,349 @@
     <t>55590</t>
   </si>
   <si>
-    <t>225065-01</t>
-  </si>
-  <si>
-    <t>S22101</t>
-  </si>
-  <si>
-    <t>08252020</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>08212020</t>
-  </si>
-  <si>
-    <t>156200</t>
-  </si>
-  <si>
-    <t>S20200</t>
-  </si>
-  <si>
-    <t>18400</t>
-  </si>
-  <si>
     <t>DescripcionServ</t>
   </si>
   <si>
-    <t>prueba</t>
-  </si>
-  <si>
-    <t>27795</t>
-  </si>
-  <si>
     <t>SolicitudId</t>
   </si>
   <si>
-    <t>61519C50-B4D7-48BE-AFBE-F8C77FB42992</t>
-  </si>
-  <si>
-    <t>08082019</t>
-  </si>
-  <si>
-    <t>400000</t>
+    <t>Cuentas Medicas</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>CE0B56E8-EDC7-487D-8E6F-7323E1AA770C</t>
+  </si>
+  <si>
+    <t>1B787779-963A-4F4F-AD91-94152AD956C2</t>
+  </si>
+  <si>
+    <t>B6C5D454-DD9C-4A47-8B18-B30F7EC5A67C</t>
+  </si>
+  <si>
+    <t>964EF25F-6993-4D8A-BE29-3D25CC8E2830</t>
+  </si>
+  <si>
+    <t>3567869E-86CE-4207-9C64-3D52FB408DB7</t>
+  </si>
+  <si>
+    <t>C2D181D2-1A11-4314-98A7-3E4A62008082</t>
+  </si>
+  <si>
+    <t>02182C17-8352-4E52-9F11-020EA5B243DD</t>
+  </si>
+  <si>
+    <t>5D8D2430-B003-40B5-B360-1ED927CC7FEB</t>
+  </si>
+  <si>
+    <t>2BB0C95C-E61C-4B24-A10C-31540682A29C</t>
+  </si>
+  <si>
+    <t>F9D901BA-9251-4301-AA27-9255CDBE2844</t>
+  </si>
+  <si>
+    <t>A2751F97-8CC5-42BA-BF46-4B5F82DCCE2F</t>
+  </si>
+  <si>
+    <t>598D73A8-A0CA-4472-8F12-55B6F2C2A5CA</t>
+  </si>
+  <si>
+    <t>13C54B7E-A32B-40EF-9E72-F483C8ADB486</t>
+  </si>
+  <si>
+    <t>8018CF12-2A78-4B94-AE97-ECACD4F0C9FA</t>
+  </si>
+  <si>
+    <t>5CB79F6E-3A94-4EF3-B7F0-D20A4D1B193A</t>
+  </si>
+  <si>
+    <t>466FA58A-45FE-4A9C-A45D-7E9B9670A6A5</t>
+  </si>
+  <si>
+    <t>F3B3567D-259A-4F3F-A427-3D9F2B2D343B</t>
+  </si>
+  <si>
+    <t>B6437223-8250-4265-BD73-44B4E5471A1A</t>
+  </si>
+  <si>
+    <t>5E727324-04E7-4F1E-AF0B-D409EE4AB170</t>
+  </si>
+  <si>
+    <t>A9BF7B81-4722-4EE1-87F3-DD1D25C36225</t>
+  </si>
+  <si>
+    <t>938843CC-E213-417A-A6C5-E4F20D7A074B</t>
+  </si>
+  <si>
+    <t>7FE208D1-185B-49EE-B1E0-6B0B118EB8A6</t>
+  </si>
+  <si>
+    <t>681DE692-7BA2-4929-AC81-53D97D3D0C12</t>
+  </si>
+  <si>
+    <t>D3AFAE6F-2DFE-4573-BE12-36386BD93116</t>
+  </si>
+  <si>
+    <t>1300598D-58DF-4CD9-AC33-062D8A261DE7</t>
+  </si>
+  <si>
+    <t>4AC631C6-8FF4-463C-8FB8-772BCD717485</t>
+  </si>
+  <si>
+    <t>46B332FD-3F20-43FB-AC91-C9FC793B2ABA</t>
+  </si>
+  <si>
+    <t>41468B1F-497D-4BE9-8AB1-FC09B662690E</t>
+  </si>
+  <si>
+    <t>F7E06379-EEF8-4256-9A7B-97D52317C370</t>
+  </si>
+  <si>
+    <t>CA185F46-2538-48A6-AE81-A5F4746ABBE2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>02222021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT valortotal,replace(convert(nvarchar,FechaFactura,101),'/',''),p.nombre,c.* </t>
+  </si>
+  <si>
+    <t>FROM IQ_Doc_Produccion_Job_CapturaAtencionesServicios c inner join Producto p on(c.Producto_Id=p.Producto_Id)</t>
+  </si>
+  <si>
+    <t>inner join Solicitud s on(s.Solicitud_id=c.folder_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE --asignado=500 and usuario is null </t>
+  </si>
+  <si>
+    <t>Folder_Id  in('C2D181D2-1A11-4314-98A7-3E4A62008082')</t>
+  </si>
+  <si>
+    <t>use Prueba_IQCM_Sanitas
+SELECT valortotal,replace(convert(nvarchar,FechaFactura,101),'/',''),p.nombre,c.* 
+---update IQ_Doc_Produccion_Job_CapturaAtencionesServicios set  asignado=99
+FROM IQ_Doc_Produccion_Job_CapturaAtencionesServicios c inner join Producto p on(c.Producto_Id=p.Producto_Id)
+inner join Solicitud s on(s.Solicitud_id=c.folder_id)
+WHERE --asignado=500 and usuario is null 
+Folder_Id  in('C2D181D2-1A11-4314-98A7-3E4A62008082')</t>
+  </si>
+  <si>
+    <t>03012021</t>
+  </si>
+  <si>
+    <t>03062021</t>
+  </si>
+  <si>
+    <t>02242021</t>
+  </si>
+  <si>
+    <t>03032021</t>
+  </si>
+  <si>
+    <t>02102021</t>
+  </si>
+  <si>
+    <t>02232021</t>
+  </si>
+  <si>
+    <t>03122021</t>
+  </si>
+  <si>
+    <t>02182021</t>
+  </si>
+  <si>
+    <t>03022021</t>
+  </si>
+  <si>
+    <t>02192021</t>
+  </si>
+  <si>
+    <t>02092021</t>
+  </si>
+  <si>
+    <t>02082021</t>
+  </si>
+  <si>
+    <t>03042021</t>
+  </si>
+  <si>
+    <t>03052021</t>
+  </si>
+  <si>
+    <t>01222021</t>
+  </si>
+  <si>
+    <t>03112021</t>
+  </si>
+  <si>
+    <t>03042020</t>
+  </si>
+  <si>
+    <t>02252021</t>
+  </si>
+  <si>
+    <t>19907095-01</t>
+  </si>
+  <si>
+    <t>19943861-04</t>
+  </si>
+  <si>
+    <t>225064-02</t>
+  </si>
+  <si>
+    <t>20019956-07</t>
+  </si>
+  <si>
+    <t>I013198</t>
+  </si>
+  <si>
+    <t>020046007-02</t>
+  </si>
+  <si>
+    <t>0200676251-</t>
+  </si>
+  <si>
+    <t>20062600-01</t>
+  </si>
+  <si>
+    <t>019983523-021</t>
+  </si>
+  <si>
+    <t>000026523-03</t>
+  </si>
+  <si>
+    <t>1993754-02</t>
+  </si>
+  <si>
+    <t>19936296-11</t>
+  </si>
+  <si>
+    <t>51334-4</t>
+  </si>
+  <si>
+    <t>29523-5</t>
+  </si>
+  <si>
+    <t>29523-06</t>
+  </si>
+  <si>
+    <t>20035947-28</t>
+  </si>
+  <si>
+    <t>19993036-08</t>
+  </si>
+  <si>
+    <t>19997616-07</t>
+  </si>
+  <si>
+    <t>B03AA07</t>
+  </si>
+  <si>
+    <t>MAT0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMIFICADOR </t>
+  </si>
+  <si>
+    <t>CATETER INTRAVENOSO 24G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DERECHOS DE SALA DE OBSERVACION </t>
+  </si>
+  <si>
+    <t>COPROCULTIVO</t>
+  </si>
+  <si>
+    <t>ALRAZOLAM TAB 0,25MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERAPIA   NEURAL </t>
+  </si>
+  <si>
+    <t>VACUNA VIRUS HEPATITIS B ( RECONVAX B )</t>
+  </si>
+  <si>
+    <t>JERINGA X 5 ML</t>
+  </si>
+  <si>
+    <t>HEMOGRAMA I(HEMOGLOBINA</t>
+  </si>
+  <si>
+    <t>CANULA DE OXIGENO ADULTO</t>
+  </si>
+  <si>
+    <t>AMPICILINA SODICA+SULBACTAM POLVO PARA RECONS</t>
+  </si>
+  <si>
+    <t>SONDA NELATON N 8.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METOCLOPRAMIDA 10 MG/2 MG </t>
+  </si>
+  <si>
+    <t>HALOPERIDOL SLN INY 6MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAPROXENO 250 MG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONAZEDPN 25 MG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMINA K1 10 MG SOL INY </t>
+  </si>
+  <si>
+    <t>PUERTO LIBRE DE AGUJAS</t>
+  </si>
+  <si>
+    <t>ALIZAPRINA 50 MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICACION DE OTRO VIRUS </t>
+  </si>
+  <si>
+    <t>TRASLADO MUESTRA COVID 19</t>
+  </si>
+  <si>
+    <t>PQ COLECISTECTOMIA V. LAPAROSCOPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATOLOG. QX COLOR. BASICA </t>
+  </si>
+  <si>
+    <t>EXPLANTE O ELIMINACION DE CARDIOCERSOR (DESFICRILADOR)</t>
+  </si>
+  <si>
+    <t>TRAMADOL AMPOLLA DE 50 MG/ML</t>
+  </si>
+  <si>
+    <t>RADIOGRAFIA DE CLAVICULA</t>
+  </si>
+  <si>
+    <t>PROTEINA C REACTIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURETROL </t>
+  </si>
+  <si>
+    <t>CATETER IV#18</t>
+  </si>
+  <si>
+    <t>AZITROMICINA 500MG TAB</t>
+  </si>
+  <si>
+    <t>SALBUTAMOL(SULFATO )100MCG/D LIQUIDO PARA INH10</t>
+  </si>
+  <si>
+    <t>TRAMADOL  CLORHIDRATO  X 100 MG /  2ML SOL  INY</t>
   </si>
 </sst>
 </file>
@@ -151,27 +482,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -179,63 +498,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,14 +514,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BB19C0-2AB4-45B8-BCFB-052D3CC0F6CA}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +849,7 @@
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -642,14 +908,46 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
       <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" t="e" cm="1">
+        <f t="array" ref="L5">---update IQ_Doc_Produccion_Job_CapturaAtencionesServicios set  asignado=99</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,16 +956,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A29217C-980D-4FFE-AEFF-447CDE9F4121}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="6"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -677,7 +977,7 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -687,132 +987,850 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1098817112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>216990</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11299573</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>309300</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1049644117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1120367774</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>35000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17179633</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>302000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1098817112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>314130</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="12" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1025543536</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>40000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1022995494</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>316725</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1073520781</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>236800</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1007437627</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>272916</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>23494880</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>236800</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1098817112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>236469</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1098817112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13">
+        <v>384000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1073487141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14">
+        <v>217690</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1050615239</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>380300</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19451609</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16">
+        <v>384720</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1099282017</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17">
+        <v>167166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11251728</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>301704</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1125268689</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19">
+        <v>302000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11290835</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20">
+        <v>326030</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11290987</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>341550</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11296304</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>316725</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11297790</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>114800</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11299573</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24">
+        <v>285574</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11315090</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>201221</v>
+      </c>
+      <c r="F25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>17168738</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11330500</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26">
+        <v>344915</v>
+      </c>
+      <c r="F26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1049616086</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1049614752</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11331233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27">
+        <v>303786</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1135990</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>455704</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1136879141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29">
+        <v>390200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11371013</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30">
+        <v>347200</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="5"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="5"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="5"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="5"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -823,20 +1841,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE145E57-09B7-43F9-B279-A7000EB425AA}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
@@ -846,228 +1866,554 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1049644117</v>
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>72330</v>
+      </c>
+      <c r="C2">
+        <v>11299573</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>72330</v>
+      </c>
+      <c r="C3">
+        <v>11299573</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>72330</v>
+      </c>
+      <c r="C4">
+        <v>11299573</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>326030</v>
+      </c>
+      <c r="C5">
+        <v>1120367774</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>316725</v>
+      </c>
+      <c r="C6">
+        <v>17179633</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>20108009</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1049644117</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>50421364</v>
+      </c>
+      <c r="B7">
+        <v>316725</v>
+      </c>
+      <c r="C7">
+        <v>1098817112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>384720</v>
+      </c>
+      <c r="C8">
+        <v>1025543536</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>19973360</v>
+      </c>
+      <c r="B9">
+        <v>236800</v>
+      </c>
+      <c r="C9">
+        <v>1022995494</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>2725901</v>
+      </c>
+      <c r="B10">
+        <v>309300</v>
+      </c>
+      <c r="C10">
+        <v>1073520781</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>20108009</v>
-      </c>
-      <c r="B4" s="5">
-        <v>340</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5">
-        <v>450</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6">
-        <v>14500</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>890701</v>
-      </c>
-      <c r="B7" s="6">
-        <v>40300</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>1017</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1900</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1049616086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>200436442</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1049616086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1">
-        <v>73700</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1049616086</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>1992428549</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3300</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1049616086</v>
+      <c r="A11" s="9">
+        <v>2001138806</v>
+      </c>
+      <c r="B11">
+        <v>302000</v>
+      </c>
+      <c r="C11">
+        <v>1007437627</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>199427775</v>
-      </c>
-      <c r="B12" s="1">
-        <v>500</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1049616086</v>
+        <v>40026</v>
+      </c>
+      <c r="B12">
+        <v>314130</v>
+      </c>
+      <c r="C12">
+        <v>23494880</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>20108009</v>
-      </c>
-      <c r="B13" s="1">
-        <v>300</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1049616086</v>
+      <c r="A13" s="9">
+        <v>1993028601</v>
+      </c>
+      <c r="B13">
+        <v>302000</v>
+      </c>
+      <c r="C13">
+        <v>1098817112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>424</v>
-      </c>
-      <c r="B14" s="1">
-        <v>11800</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1049616086</v>
+      <c r="A14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>384000</v>
+      </c>
+      <c r="C14">
+        <v>1098817112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>890701</v>
-      </c>
-      <c r="B15" s="1">
-        <v>40300</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1049616086</v>
+      <c r="A15" s="9">
+        <v>2000861301</v>
+      </c>
+      <c r="B15">
+        <v>380300</v>
+      </c>
+      <c r="C15">
+        <v>1073487141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>199482801</v>
-      </c>
-      <c r="B16" s="1">
-        <v>200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1049616086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>20104095</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4800</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1049616086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>20102177</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9100</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1049616086</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>20104096</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4500</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1049616086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>897011</v>
-      </c>
-      <c r="B20" s="7">
-        <v>18400</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1049614752</v>
+      <c r="A16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>390200</v>
+      </c>
+      <c r="C16">
+        <v>1050615239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17">
+        <v>455704</v>
+      </c>
+      <c r="C17">
+        <v>1098817112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>285574</v>
+      </c>
+      <c r="C18">
+        <v>19451609</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <v>301704</v>
+      </c>
+      <c r="C19">
+        <v>1099282017</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>8907</v>
+      </c>
+      <c r="B20">
+        <v>272916</v>
+      </c>
+      <c r="C20">
+        <v>11251728</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>2.00010000198395E+16</v>
+      </c>
+      <c r="B21">
+        <v>236469</v>
+      </c>
+      <c r="C21">
+        <v>1125268689</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>201221</v>
+      </c>
+      <c r="C22">
+        <v>11290835</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23">
+        <v>344915</v>
+      </c>
+      <c r="C23">
+        <v>11290987</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>2.00100000711983E+16</v>
+      </c>
+      <c r="B24">
+        <v>303786</v>
+      </c>
+      <c r="C24">
+        <v>11296304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25">
+        <v>216990</v>
+      </c>
+      <c r="C25">
+        <v>11297790</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26">
+        <v>217690</v>
+      </c>
+      <c r="C26">
+        <v>11299573</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27">
+        <v>40000</v>
+      </c>
+      <c r="C27">
+        <v>11315090</v>
+      </c>
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>35000</v>
+      </c>
+      <c r="C28">
+        <v>11330500</v>
+      </c>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29">
+        <v>167166</v>
+      </c>
+      <c r="C29">
+        <v>11331233</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30">
+        <v>114800</v>
+      </c>
+      <c r="C30">
+        <v>1135990</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>870102</v>
+      </c>
+      <c r="B31">
+        <v>347200</v>
+      </c>
+      <c r="C31">
+        <v>1136879141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>906914</v>
+      </c>
+      <c r="B32">
+        <v>341550</v>
+      </c>
+      <c r="C32">
+        <v>11371013</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33">
+        <v>307385</v>
+      </c>
+      <c r="C33">
+        <v>11372210</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/DataSource/MóduloCas.xlsx
+++ b/DataSource/MóduloCas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396841DD-93E4-4795-A1CC-BCB83AACC6D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5426C215-4D31-4A1C-9C40-0C48FBB591C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{18C2493C-4C45-49E4-9696-C41C7F6F0FA4}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="111">
   <si>
     <t>NroIdentificacion</t>
   </si>
@@ -118,6 +118,15 @@
     <t>55590</t>
   </si>
   <si>
+    <t>225065-01</t>
+  </si>
+  <si>
+    <t>S22101</t>
+  </si>
+  <si>
+    <t>S20200</t>
+  </si>
+  <si>
     <t>DescripcionServ</t>
   </si>
   <si>
@@ -149,9 +158,6 @@
   </si>
   <si>
     <t>C2D181D2-1A11-4314-98A7-3E4A62008082</t>
-  </si>
-  <si>
-    <t>02182C17-8352-4E52-9F11-020EA5B243DD</t>
   </si>
   <si>
     <t>5D8D2430-B003-40B5-B360-1ED927CC7FEB</t>
@@ -307,160 +313,94 @@
     <t>02252021</t>
   </si>
   <si>
-    <t>19907095-01</t>
-  </si>
-  <si>
-    <t>19943861-04</t>
-  </si>
-  <si>
-    <t>225064-02</t>
-  </si>
-  <si>
-    <t>20019956-07</t>
-  </si>
-  <si>
-    <t>I013198</t>
-  </si>
-  <si>
-    <t>020046007-02</t>
-  </si>
-  <si>
-    <t>0200676251-</t>
-  </si>
-  <si>
-    <t>20062600-01</t>
-  </si>
-  <si>
-    <t>019983523-021</t>
-  </si>
-  <si>
-    <t>000026523-03</t>
-  </si>
-  <si>
-    <t>1993754-02</t>
-  </si>
-  <si>
-    <t>19936296-11</t>
-  </si>
-  <si>
-    <t>51334-4</t>
-  </si>
-  <si>
-    <t>29523-5</t>
-  </si>
-  <si>
-    <t>29523-06</t>
-  </si>
-  <si>
-    <t>20035947-28</t>
-  </si>
-  <si>
-    <t>19993036-08</t>
-  </si>
-  <si>
-    <t>19997616-07</t>
-  </si>
-  <si>
-    <t>B03AA07</t>
-  </si>
-  <si>
-    <t>MAT0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUMIFICADOR </t>
-  </si>
-  <si>
-    <t>CATETER INTRAVENOSO 24G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERECHOS DE SALA DE OBSERVACION </t>
-  </si>
-  <si>
-    <t>COPROCULTIVO</t>
-  </si>
-  <si>
-    <t>ALRAZOLAM TAB 0,25MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERAPIA   NEURAL </t>
-  </si>
-  <si>
-    <t>VACUNA VIRUS HEPATITIS B ( RECONVAX B )</t>
-  </si>
-  <si>
-    <t>JERINGA X 5 ML</t>
-  </si>
-  <si>
-    <t>HEMOGRAMA I(HEMOGLOBINA</t>
-  </si>
-  <si>
-    <t>CANULA DE OXIGENO ADULTO</t>
-  </si>
-  <si>
-    <t>AMPICILINA SODICA+SULBACTAM POLVO PARA RECONS</t>
-  </si>
-  <si>
-    <t>SONDA NELATON N 8.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METOCLOPRAMIDA 10 MG/2 MG </t>
-  </si>
-  <si>
-    <t>HALOPERIDOL SLN INY 6MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAPROXENO 250 MG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLONAZEDPN 25 MG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITAMINA K1 10 MG SOL INY </t>
-  </si>
-  <si>
-    <t>PUERTO LIBRE DE AGUJAS</t>
-  </si>
-  <si>
-    <t>ALIZAPRINA 50 MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICACION DE OTRO VIRUS </t>
-  </si>
-  <si>
-    <t>TRASLADO MUESTRA COVID 19</t>
-  </si>
-  <si>
-    <t>PQ COLECISTECTOMIA V. LAPAROSCOPIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATOLOG. QX COLOR. BASICA </t>
-  </si>
-  <si>
-    <t>EXPLANTE O ELIMINACION DE CARDIOCERSOR (DESFICRILADOR)</t>
-  </si>
-  <si>
-    <t>TRAMADOL AMPOLLA DE 50 MG/ML</t>
-  </si>
-  <si>
-    <t>RADIOGRAFIA DE CLAVICULA</t>
-  </si>
-  <si>
-    <t>PROTEINA C REACTIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BURETROL </t>
-  </si>
-  <si>
-    <t>CATETER IV#18</t>
-  </si>
-  <si>
-    <t>AZITROMICINA 500MG TAB</t>
-  </si>
-  <si>
-    <t>SALBUTAMOL(SULFATO )100MCG/D LIQUIDO PARA INH10</t>
-  </si>
-  <si>
-    <t>TRAMADOL  CLORHIDRATO  X 100 MG /  2ML SOL  INY</t>
+    <t>864204-0</t>
+  </si>
+  <si>
+    <t>DS817204</t>
+  </si>
+  <si>
+    <t>meropenem polvo esteril p/inyeccion 1g</t>
+  </si>
+  <si>
+    <t>alfa fetoprateina ( afp ) serica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acetaminofen 500mg tableta </t>
+  </si>
+  <si>
+    <t>acetaminofen 500 mg tableta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hioscina n - butil bromuro 20mg / ml </t>
+  </si>
+  <si>
+    <t>levotiroxina sodica 100mcg</t>
+  </si>
+  <si>
+    <t>transaminasa glutamico oxalacetica o aspartato ami</t>
+  </si>
+  <si>
+    <t>medio de contraste o radiofarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sodio cloruro 0..9% x 500ml </t>
+  </si>
+  <si>
+    <t>bilirrubinas total y directa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terapia ocipacional integral </t>
+  </si>
+  <si>
+    <t>heparina sod sol iny 5000ui/ml vialx5ml</t>
+  </si>
+  <si>
+    <t>fentanyl jeringa 250 mcg</t>
+  </si>
+  <si>
+    <t>jeringa 10ml</t>
+  </si>
+  <si>
+    <t>urocultivo (antiograma mic automatico)</t>
+  </si>
+  <si>
+    <t>equipo cistoirrigador</t>
+  </si>
+  <si>
+    <t>polvo stomahesive 28gm</t>
+  </si>
+  <si>
+    <t>antrostomia maxilar por meato medio via transnasal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levetiracetam 500mg </t>
+  </si>
+  <si>
+    <t>merocel nasal recto 8 cm</t>
+  </si>
+  <si>
+    <t>tornillo de esponjosa 3.5</t>
+  </si>
+  <si>
+    <t>lactato de ringer bolsa x 500ml</t>
+  </si>
+  <si>
+    <t>potenciales evocados  somatos</t>
+  </si>
+  <si>
+    <t>lactulosa sln oral 66,7g /100ml sobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinza ligasure 31mm </t>
+  </si>
+  <si>
+    <t>venda de algodon laminado 6x5 yds</t>
+  </si>
+  <si>
+    <t>mascara laringea n° 4.0</t>
+  </si>
+  <si>
+    <t>sala de observacion ( urgencias) de complejidad al</t>
   </si>
 </sst>
 </file>
@@ -502,14 +442,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -518,9 +455,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,16 +844,16 @@
     </row>
     <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -931,22 +865,22 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -959,12 +893,12 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="11.42578125" style="5"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
@@ -977,7 +911,7 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -993,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1003,257 +937,257 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>61</v>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E2">
         <v>216990</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11299573</v>
+        <v>1120367774</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>66</v>
+      <c r="C3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>309300</v>
+        <v>35000</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1120367774</v>
+        <v>17179633</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>67</v>
+      <c r="C4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E4">
-        <v>35000</v>
+        <v>302000</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17179633</v>
+        <v>1098817112</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>68</v>
+      <c r="C5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E5">
-        <v>302000</v>
+        <v>314130</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1098817112</v>
+        <v>1025543536</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>69</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E6">
-        <v>314130</v>
+        <v>40000</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1025543536</v>
+        <v>1022995494</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>40000</v>
+        <v>316725</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1022995494</v>
+        <v>1073520781</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>68</v>
+      <c r="C8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E8">
-        <v>316725</v>
+        <v>236800</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1073520781</v>
+        <v>1007437627</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>70</v>
+      <c r="C9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E9">
-        <v>236800</v>
+        <v>272916</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1007437627</v>
+        <v>23494880</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>62</v>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E10">
-        <v>272916</v>
+        <v>236800</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>23494880</v>
+        <v>1098817112</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>54</v>
+      <c r="C11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E11">
-        <v>236800</v>
+        <v>236469</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1263,101 +1197,101 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>63</v>
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E12">
-        <v>236469</v>
+        <v>384000</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1098817112</v>
+        <v>1073487141</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E13">
-        <v>384000</v>
+        <v>217690</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1073487141</v>
+        <v>1050615239</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E14">
-        <v>217690</v>
+        <v>380300</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1050615239</v>
+        <v>1098817112</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E15">
-        <v>380300</v>
+        <v>216990</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,23 +1301,23 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>72</v>
+      <c r="C16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E16">
         <v>384720</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1393,23 +1327,23 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>73</v>
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E17">
         <v>167166</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1419,23 +1353,23 @@
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>65</v>
+      <c r="C18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E18">
         <v>301704</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,23 +1379,23 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>68</v>
+      <c r="C19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E19">
         <v>302000</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1471,23 +1405,23 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>71</v>
+      <c r="C20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E20">
         <v>326030</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>24</v>
+      <c r="H20" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1497,23 +1431,23 @@
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>74</v>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E21">
         <v>341550</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,23 +1457,23 @@
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>75</v>
+      <c r="C22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E22">
         <v>316725</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1549,23 +1483,23 @@
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>76</v>
+      <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E23">
         <v>114800</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1575,23 +1509,23 @@
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>61</v>
+      <c r="C24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E24">
         <v>285574</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1601,11 +1535,11 @@
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>64</v>
+      <c r="C25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E25">
         <v>201221</v>
@@ -1616,8 +1550,8 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>41</v>
+      <c r="H25" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,11 +1561,11 @@
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>77</v>
+      <c r="C26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E26">
         <v>344915</v>
@@ -1643,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1653,23 +1587,23 @@
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>63</v>
+      <c r="C27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E27">
         <v>303786</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1679,23 +1613,23 @@
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>63</v>
+      <c r="C28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E28">
         <v>455704</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,23 +1639,23 @@
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>78</v>
+      <c r="C29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E29">
         <v>390200</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1731,106 +1665,106 @@
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>76</v>
+      <c r="C30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E30">
         <v>347200</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="5"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="5"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="5"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="5"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="5"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="5"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="5"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="5"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="5"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="5"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="5"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="5"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="5"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="5"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="5"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="5"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="5"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="5"/>
+      <c r="D66" s="4"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="5"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="5"/>
+      <c r="D69" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1841,22 +1775,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE145E57-09B7-43F9-B279-A7000EB425AA}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
@@ -1866,66 +1799,66 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>79</v>
+      <c r="A2" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
         <v>72330</v>
       </c>
       <c r="C2">
-        <v>11299573</v>
+        <v>1098817112</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>80</v>
+      <c r="A3" t="s">
+        <v>81</v>
       </c>
       <c r="B3">
         <v>72330</v>
       </c>
       <c r="C3">
-        <v>11299573</v>
+        <v>1098817112</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>81</v>
+      <c r="A4" t="s">
+        <v>82</v>
       </c>
       <c r="B4">
         <v>72330</v>
       </c>
       <c r="C4">
-        <v>11299573</v>
+        <v>1098817112</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>82</v>
+      <c r="A5">
+        <v>20108009</v>
       </c>
       <c r="B5">
         <v>326030</v>
@@ -1934,15 +1867,15 @@
         <v>1120367774</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>83</v>
+      <c r="A6">
+        <v>20108009</v>
       </c>
       <c r="B6">
         <v>316725</v>
@@ -1951,469 +1884,401 @@
         <v>17179633</v>
       </c>
       <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>384720</v>
+      </c>
+      <c r="C7">
+        <v>1025543536</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>890701</v>
+      </c>
+      <c r="B8">
+        <v>236800</v>
+      </c>
+      <c r="C8">
+        <v>1022995494</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1017</v>
+      </c>
+      <c r="B9">
+        <v>309300</v>
+      </c>
+      <c r="C9">
+        <v>1073520781</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>200436442</v>
+      </c>
+      <c r="B10">
+        <v>302000</v>
+      </c>
+      <c r="C10">
+        <v>1007437627</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>314130</v>
+      </c>
+      <c r="C11">
+        <v>23494880</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20108009</v>
+      </c>
+      <c r="B12">
+        <v>380300</v>
+      </c>
+      <c r="C12">
+        <v>1073487141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>424</v>
+      </c>
+      <c r="B13">
+        <v>390200</v>
+      </c>
+      <c r="C13">
+        <v>1050615239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>199482801</v>
+      </c>
+      <c r="B14">
+        <v>285574</v>
+      </c>
+      <c r="C14">
+        <v>19451609</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>301704</v>
+      </c>
+      <c r="C15">
+        <v>1099282017</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20108009</v>
+      </c>
+      <c r="B16">
+        <v>272916</v>
+      </c>
+      <c r="C16">
+        <v>11251728</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20108009</v>
+      </c>
+      <c r="B17">
+        <v>236469</v>
+      </c>
+      <c r="C17">
+        <v>1125268689</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>201221</v>
+      </c>
+      <c r="C18">
+        <v>11290835</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>344915</v>
+      </c>
+      <c r="C19">
+        <v>11290987</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>890701</v>
+      </c>
+      <c r="B20">
+        <v>303786</v>
+      </c>
+      <c r="C20">
+        <v>11296304</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1017</v>
+      </c>
+      <c r="B21">
+        <v>216990</v>
+      </c>
+      <c r="C21">
+        <v>11297790</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>200436442</v>
+      </c>
+      <c r="B22">
+        <v>217690</v>
+      </c>
+      <c r="C22">
+        <v>11299573</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>40000</v>
+      </c>
+      <c r="C23">
+        <v>11315090</v>
+      </c>
+      <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>50421364</v>
-      </c>
-      <c r="B7">
-        <v>316725</v>
-      </c>
-      <c r="C7">
-        <v>1098817112</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1992428549</v>
+      </c>
+      <c r="B24">
+        <v>35000</v>
+      </c>
+      <c r="C24">
+        <v>11330500</v>
+      </c>
+      <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8">
-        <v>384720</v>
-      </c>
-      <c r="C8">
-        <v>1025543536</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>199427775</v>
+      </c>
+      <c r="B25">
+        <v>167166</v>
+      </c>
+      <c r="C25">
+        <v>11331233</v>
+      </c>
+      <c r="D25" t="s">
         <v>105</v>
       </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>19973360</v>
-      </c>
-      <c r="B9">
-        <v>236800</v>
-      </c>
-      <c r="C9">
-        <v>1022995494</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20108009</v>
+      </c>
+      <c r="B26">
+        <v>114800</v>
+      </c>
+      <c r="C26">
+        <v>1135990</v>
+      </c>
+      <c r="D26" t="s">
         <v>106</v>
       </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2725901</v>
-      </c>
-      <c r="B10">
-        <v>309300</v>
-      </c>
-      <c r="C10">
-        <v>1073520781</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>424</v>
+      </c>
+      <c r="B27">
+        <v>347200</v>
+      </c>
+      <c r="C27">
+        <v>1136879141</v>
+      </c>
+      <c r="D27" t="s">
         <v>107</v>
       </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2001138806</v>
-      </c>
-      <c r="B11">
-        <v>302000</v>
-      </c>
-      <c r="C11">
-        <v>1007437627</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>890701</v>
+      </c>
+      <c r="B28">
+        <v>341550</v>
+      </c>
+      <c r="C28">
+        <v>11371013</v>
+      </c>
+      <c r="D28" t="s">
         <v>108</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>40026</v>
-      </c>
-      <c r="B12">
-        <v>314130</v>
-      </c>
-      <c r="C12">
-        <v>23494880</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>199482801</v>
+      </c>
+      <c r="B29">
+        <v>307385</v>
+      </c>
+      <c r="C29">
+        <v>11372210</v>
+      </c>
+      <c r="D29" t="s">
         <v>109</v>
       </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>1993028601</v>
-      </c>
-      <c r="B13">
-        <v>302000</v>
-      </c>
-      <c r="C13">
-        <v>1098817112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14">
-        <v>384000</v>
-      </c>
-      <c r="C14">
-        <v>1098817112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>2000861301</v>
-      </c>
-      <c r="B15">
-        <v>380300</v>
-      </c>
-      <c r="C15">
-        <v>1073487141</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16">
-        <v>390200</v>
-      </c>
-      <c r="C16">
-        <v>1050615239</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17">
-        <v>455704</v>
-      </c>
-      <c r="C17">
-        <v>1098817112</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18">
-        <v>285574</v>
-      </c>
-      <c r="C18">
-        <v>19451609</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19">
-        <v>301704</v>
-      </c>
-      <c r="C19">
-        <v>1099282017</v>
-      </c>
-      <c r="D19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>8907</v>
-      </c>
-      <c r="B20">
-        <v>272916</v>
-      </c>
-      <c r="C20">
-        <v>11251728</v>
-      </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>2.00010000198395E+16</v>
-      </c>
-      <c r="B21">
-        <v>236469</v>
-      </c>
-      <c r="C21">
-        <v>1125268689</v>
-      </c>
-      <c r="D21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22">
-        <v>201221</v>
-      </c>
-      <c r="C22">
-        <v>11290835</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23">
-        <v>344915</v>
-      </c>
-      <c r="C23">
-        <v>11290987</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>2.00100000711983E+16</v>
-      </c>
-      <c r="B24">
-        <v>303786</v>
-      </c>
-      <c r="C24">
-        <v>11296304</v>
-      </c>
-      <c r="D24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25">
-        <v>216990</v>
-      </c>
-      <c r="C25">
-        <v>11297790</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26">
-        <v>217690</v>
-      </c>
-      <c r="C26">
-        <v>11299573</v>
-      </c>
-      <c r="D26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27">
-        <v>40000</v>
-      </c>
-      <c r="C27">
-        <v>11315090</v>
-      </c>
-      <c r="D27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28">
-        <v>35000</v>
-      </c>
-      <c r="C28">
-        <v>11330500</v>
-      </c>
-      <c r="D28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29">
-        <v>167166</v>
-      </c>
-      <c r="C29">
-        <v>11331233</v>
-      </c>
-      <c r="D29" t="s">
-        <v>126</v>
-      </c>
       <c r="E29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30">
-        <v>114800</v>
-      </c>
-      <c r="C30">
-        <v>1135990</v>
-      </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>870102</v>
-      </c>
-      <c r="B31">
-        <v>347200</v>
-      </c>
-      <c r="C31">
-        <v>1136879141</v>
-      </c>
-      <c r="D31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>906914</v>
-      </c>
-      <c r="B32">
-        <v>341550</v>
-      </c>
-      <c r="C32">
-        <v>11371013</v>
-      </c>
-      <c r="D32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33">
-        <v>307385</v>
-      </c>
-      <c r="C33">
-        <v>11372210</v>
-      </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
